--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -11,6 +11,9 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$35</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -162,8 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +223,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -242,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -316,7 +319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -351,7 +353,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -527,14 +528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -550,21 +551,21 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="33.75">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>13</v>
       </c>
@@ -581,12 +582,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" t="s">
         <v>24</v>
       </c>
@@ -597,12 +598,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>21</v>
       </c>
@@ -613,12 +614,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>31</v>
       </c>
@@ -626,7 +627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +669,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -681,7 +682,7 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>40794</v>
       </c>
       <c r="F8" t="s">
@@ -702,11 +703,11 @@
       <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -719,7 +720,7 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>40794</v>
       </c>
       <c r="F9" t="s">
@@ -738,7 +739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3</v>
       </c>
@@ -751,7 +752,7 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>40794</v>
       </c>
       <c r="F10" t="s">
@@ -770,7 +771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>4</v>
       </c>
@@ -783,7 +784,7 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>40794</v>
       </c>
       <c r="F11" t="s">
@@ -799,7 +800,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
@@ -812,7 +813,7 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>40794</v>
       </c>
       <c r="F12" t="s">
@@ -825,7 +826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
@@ -838,7 +839,7 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>40794</v>
       </c>
       <c r="F13" t="s">
@@ -851,7 +852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
@@ -864,7 +865,7 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>40794</v>
       </c>
       <c r="F14" t="s">
@@ -877,112 +878,113 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:M35"/>
   <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:E1"/>
@@ -1011,24 +1013,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$35</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -144,9 +144,6 @@
     <t>adden der Komponenten</t>
   </si>
   <si>
-    <t>Logik</t>
-  </si>
-  <si>
     <t>Algorithmus</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Logik der GUI</t>
+  </si>
+  <si>
+    <t>Prüfung der Benutzereingaben</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -545,7 +548,7 @@
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
@@ -712,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -737,6 +740,12 @@
       </c>
       <c r="K9" t="s">
         <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3">
+        <v>40794</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -744,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -769,6 +778,12 @@
       </c>
       <c r="K10" t="s">
         <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="3">
+        <v>40794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -776,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -794,10 +809,19 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="3">
+        <v>40794</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -811,7 +835,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>40794</v>
@@ -820,10 +844,10 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -837,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>40794</v>
@@ -846,10 +870,10 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -863,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3">
         <v>40794</v>
@@ -872,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14">

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -168,8 +168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +237,50 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -248,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -322,6 +365,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -356,6 +400,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -531,14 +576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -554,7 +599,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -563,7 +608,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -585,7 +630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -601,7 +646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -617,7 +662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -630,7 +675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +717,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -710,7 +755,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -748,7 +793,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -786,7 +831,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -824,7 +869,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -850,7 +895,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -876,7 +921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -902,107 +947,107 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1016,6 +1061,26 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
   </mergeCells>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="iconSet" priority="5">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B35">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="fertig">
+      <formula>NOT(ISERROR(SEARCH("fertig",B8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="in Arbeit">
+      <formula>NOT(ISERROR(SEARCH("in Arbeit",B8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="jungfräulich">
+      <formula>NOT(ISERROR(SEARCH("jungfräulich",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F35">
       <formula1>$D$2:$H$2</formula1>
@@ -1037,24 +1102,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$35</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -168,8 +168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,21 +237,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -273,13 +259,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -291,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -365,7 +344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -400,7 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -576,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -599,7 +576,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="33.75">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -608,7 +585,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -630,7 +607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -646,7 +623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -662,7 +639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -675,7 +652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,7 +694,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -745,6 +722,9 @@
       <c r="I8" t="s">
         <v>29</v>
       </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
       <c r="K8" t="s">
         <v>33</v>
       </c>
@@ -755,7 +735,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -783,6 +763,9 @@
       <c r="I9" t="s">
         <v>37</v>
       </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
@@ -793,7 +776,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3</v>
       </c>
@@ -821,6 +804,9 @@
       <c r="I10" t="s">
         <v>40</v>
       </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
       <c r="K10" t="s">
         <v>38</v>
       </c>
@@ -831,7 +817,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>4</v>
       </c>
@@ -859,6 +845,9 @@
       <c r="I11" t="s">
         <v>47</v>
       </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
       <c r="K11" t="s">
         <v>38</v>
       </c>
@@ -869,7 +858,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
@@ -895,7 +884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
@@ -921,7 +910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
@@ -947,107 +936,107 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1071,13 +1060,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B35">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="fertig">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="fertig">
       <formula>NOT(ISERROR(SEARCH("fertig",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="in Arbeit">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="in Arbeit">
       <formula>NOT(ISERROR(SEARCH("in Arbeit",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="jungfräulich">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="jungfräulich">
       <formula>NOT(ISERROR(SEARCH("jungfräulich",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1102,24 +1091,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$35</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>Prüfung der Benutzereingaben</t>
+  </si>
+  <si>
+    <t>1,5h</t>
+  </si>
+  <si>
+    <t>Öfentlichkeitsarbeit</t>
+  </si>
+  <si>
+    <t>Vorarbeit Präsentation</t>
+  </si>
+  <si>
+    <t>Wiederschein, Schlufter, Thomas</t>
+  </si>
+  <si>
+    <t>Salzer, Mrosk</t>
+  </si>
+  <si>
+    <t>Implementierung desAlorithmus</t>
   </si>
 </sst>
 </file>
@@ -556,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -568,9 +586,9 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
@@ -852,7 +870,7 @@
         <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M11" s="3">
         <v>40794</v>
@@ -863,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -882,6 +900,9 @@
       </c>
       <c r="H12" t="s">
         <v>43</v>
+      </c>
+      <c r="M12" s="3">
+        <v>40794</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -889,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -908,6 +929,9 @@
       </c>
       <c r="H13" t="s">
         <v>44</v>
+      </c>
+      <c r="M13" s="3">
+        <v>40794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -915,10 +939,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -930,15 +954,42 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
         <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3">
+        <v>40795</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:14">

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -168,9 +168,6 @@
     <t>1,5h</t>
   </si>
   <si>
-    <t>Öfentlichkeitsarbeit</t>
-  </si>
-  <si>
     <t>Vorarbeit Präsentation</t>
   </si>
   <si>
@@ -180,14 +177,35 @@
     <t>Salzer, Mrosk</t>
   </si>
   <si>
-    <t>Implementierung desAlorithmus</t>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Öffentlichkeitsarbeit</t>
+  </si>
+  <si>
+    <t>Implementierung des Algorithmus</t>
+  </si>
+  <si>
+    <t>Überarbeitung GUI</t>
+  </si>
+  <si>
+    <t>Überarbeitung der GUI mit MIcrosoftBlend</t>
+  </si>
+  <si>
+    <t>12h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -362,6 +380,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,6 +415,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -571,30 +591,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -603,7 +623,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -625,7 +645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -641,7 +661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -657,7 +677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -670,7 +690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,7 +732,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -753,7 +773,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -794,7 +814,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -835,7 +855,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -876,7 +896,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -901,11 +921,17 @@
       <c r="H12" t="s">
         <v>43</v>
       </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
       <c r="M12" s="3">
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -930,11 +956,17 @@
       <c r="H13" t="s">
         <v>44</v>
       </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
       <c r="M13" s="3">
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -954,16 +986,19 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>45</v>
       </c>
       <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -974,7 +1009,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
         <v>40795</v>
@@ -983,111 +1018,138 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3">
+        <v>40822</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1142,24 +1204,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -199,13 +199,46 @@
   </si>
   <si>
     <t>12h</t>
+  </si>
+  <si>
+    <t>Schlufter, Thomas</t>
+  </si>
+  <si>
+    <t>Volle Funktionalität des Programms</t>
+  </si>
+  <si>
+    <t>Ausarbeitung</t>
+  </si>
+  <si>
+    <t>Vortrag/Doku</t>
+  </si>
+  <si>
+    <t>Mrosk, Thomas</t>
+  </si>
+  <si>
+    <t>Hilfe in Form von ToolTip</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>ToolTip und logik für alpha anpassen</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Datenausgabe</t>
+  </si>
+  <si>
+    <t>Ergebnis speichern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +339,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -380,7 +413,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -415,7 +447,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -591,14 +622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -614,7 +645,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="33.75">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -623,7 +654,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -645,7 +676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -661,7 +692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -677,7 +708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -690,7 +721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,7 +763,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -773,7 +804,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -814,7 +845,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3</v>
       </c>
@@ -855,7 +886,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>4</v>
       </c>
@@ -896,7 +927,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
@@ -931,7 +962,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
@@ -966,7 +997,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
@@ -998,7 +1029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1027,7 +1058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1059,99 +1090,155 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3">
+        <v>40822</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3">
+        <v>40822</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3">
+        <v>40795</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="3">
+        <v>40795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3">
+        <v>40822</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3">
+        <v>40822</v>
+      </c>
+      <c r="F21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>28</v>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1204,24 +1291,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$34</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -190,15 +190,6 @@
   </si>
   <si>
     <t>Implementierung des Algorithmus</t>
-  </si>
-  <si>
-    <t>Überarbeitung GUI</t>
-  </si>
-  <si>
-    <t>Überarbeitung der GUI mit MIcrosoftBlend</t>
-  </si>
-  <si>
-    <t>12h</t>
   </si>
   <si>
     <t>Schlufter, Thomas</t>
@@ -237,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +301,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -324,7 +315,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -339,7 +330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -413,6 +404,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -447,6 +439,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -622,14 +615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -645,7 +638,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -654,7 +647,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -676,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -692,7 +685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -708,7 +701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -721,7 +714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +756,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -804,7 +797,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -845,7 +838,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -886,7 +879,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -927,7 +920,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -962,7 +955,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -997,7 +990,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1029,7 +1022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1058,27 +1051,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3">
         <v>40822</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
@@ -1086,11 +1076,8 @@
       <c r="I16" t="s">
         <v>58</v>
       </c>
-      <c r="K16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1098,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3">
         <v>40822</v>
@@ -1107,83 +1094,89 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="3">
-        <v>40822</v>
+        <v>40795</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="3">
+        <v>40795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="3">
-        <v>40795</v>
+        <v>40822</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
         <v>45</v>
       </c>
       <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
         <v>65</v>
       </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="3">
-        <v>40795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1191,10 +1184,10 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3">
         <v>40822</v>
@@ -1202,47 +1195,15 @@
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
       <c r="H20" t="s">
         <v>45</v>
       </c>
       <c r="I20" t="s">
         <v>67</v>
       </c>
-      <c r="K20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3">
-        <v>40822</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:M35"/>
+  <autoFilter ref="A7:M34"/>
   <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:E1"/>
@@ -1259,31 +1220,31 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B35">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="fertig">
-      <formula>NOT(ISERROR(SEARCH("fertig",B8)))</formula>
+  <conditionalFormatting sqref="B8:B34">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="jungfräulich">
+      <formula>NOT(ISERROR(SEARCH("jungfräulich",B8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="in Arbeit">
       <formula>NOT(ISERROR(SEARCH("in Arbeit",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="jungfräulich">
-      <formula>NOT(ISERROR(SEARCH("jungfräulich",B8)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fertig">
+      <formula>NOT(ISERROR(SEARCH("fertig",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F34">
       <formula1>$D$2:$H$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C34">
       <formula1>$D$3:$F$3</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B35">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B34">
       <formula1>$D$4:$F$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J34">
       <formula1>$D$5:$E$5</formula1>
     </dataValidation>
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G35"/>
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G34"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1291,24 +1252,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -228,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -404,7 +404,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -439,7 +438,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -615,14 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -638,7 +636,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="33.75">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -647,7 +645,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -669,7 +667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -685,7 +683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -701,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -714,7 +712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +754,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -797,7 +795,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -838,7 +836,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3</v>
       </c>
@@ -879,7 +877,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>4</v>
       </c>
@@ -920,7 +918,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
@@ -955,7 +953,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
@@ -990,7 +988,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1077,7 +1075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1103,7 +1101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1144,12 +1142,12 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -1172,11 +1170,20 @@
       <c r="I19" t="s">
         <v>64</v>
       </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
       <c r="K19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="3">
+        <v>40822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1252,24 +1259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Implementierung des Algorithmus</t>
   </si>
   <si>
-    <t>Schlufter, Thomas</t>
-  </si>
-  <si>
     <t>Volle Funktionalität des Programms</t>
   </si>
   <si>
@@ -222,7 +219,25 @@
     <t>Datenausgabe</t>
   </si>
   <si>
-    <t>Ergebnis speichern</t>
+    <t>Thomas, Mrosk/Schlufter</t>
+  </si>
+  <si>
+    <t>Ergebnis speichern(xml oder txt)</t>
+  </si>
+  <si>
+    <t>Ablaufplan und Formeln erstellen</t>
+  </si>
+  <si>
+    <t>Ablaufplan studieren</t>
+  </si>
+  <si>
+    <t>Endabnahme</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -617,7 +632,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -943,6 +958,12 @@
       <c r="H12" t="s">
         <v>43</v>
       </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
       <c r="K12" t="s">
         <v>52</v>
       </c>
@@ -978,6 +999,12 @@
       <c r="H13" t="s">
         <v>44</v>
       </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
       <c r="K13" t="s">
         <v>52</v>
       </c>
@@ -1054,11 +1081,14 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
       <c r="E16" s="3">
         <v>40822</v>
       </c>
@@ -1066,13 +1096,22 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="3">
+        <v>40847</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1080,11 +1119,14 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="3">
         <v>40822</v>
       </c>
@@ -1095,10 +1137,10 @@
         <v>51</v>
       </c>
       <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
         <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1121,22 +1163,22 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
         <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
         <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="3">
         <v>40795</v>
@@ -1168,16 +1210,16 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M19" s="3">
         <v>40822</v>
@@ -1194,7 +1236,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3">
         <v>40822</v>
@@ -1202,11 +1244,17 @@
       <c r="F20" t="s">
         <v>16</v>
       </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
       <c r="H20" t="s">
         <v>45</v>
       </c>
       <c r="I20" t="s">
         <v>67</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -238,13 +238,16 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>6h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -419,6 +422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -453,6 +457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -628,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -651,7 +656,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -660,7 +665,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -682,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -698,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -714,7 +719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -727,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +774,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -810,7 +815,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -851,7 +856,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -892,7 +897,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -933,7 +938,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -974,7 +979,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1075,8 +1080,11 @@
       <c r="I15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1142,8 +1150,11 @@
       <c r="I17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1307,24 +1318,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -246,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -422,7 +422,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -457,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -633,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -656,7 +654,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="33.75">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -665,7 +663,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -687,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -703,7 +701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -719,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -732,7 +730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +772,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -815,7 +813,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -856,7 +854,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3</v>
       </c>
@@ -897,7 +895,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>4</v>
       </c>
@@ -938,7 +936,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
@@ -979,7 +977,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1020,7 +1018,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1236,7 +1234,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1318,24 +1316,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -241,13 +241,25 @@
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Sammeln von infos zu Ameisensysteme</t>
+  </si>
+  <si>
+    <t>Sammeln von infos zu TSP</t>
+  </si>
+  <si>
+    <t>Komprimierung der gesammelten Daten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -422,6 +434,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -456,6 +469,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -631,14 +645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -654,7 +668,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -663,7 +677,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -685,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -701,7 +715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -717,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -730,7 +744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,7 +786,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -813,7 +827,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -854,7 +868,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -895,7 +909,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -936,7 +950,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -977,7 +991,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1050,7 +1064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1082,7 +1096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1120,7 +1134,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1152,7 +1166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1193,7 +1207,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1264,6 +1278,93 @@
       </c>
       <c r="K20" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="3">
+        <v>40823</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40823</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3">
+        <v>40823</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1316,24 +1417,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1343,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -649,7 +649,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1307,6 +1307,15 @@
       </c>
       <c r="I21" t="s">
         <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="3">
+        <v>40823</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1314,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -649,7 +649,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,6 +1346,9 @@
       <c r="I22" t="s">
         <v>76</v>
       </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1374,6 +1377,9 @@
       </c>
       <c r="I23" t="s">
         <v>77</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Komprimierung der gesammelten Daten</t>
+  </si>
+  <si>
+    <t>1h 30min</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1348,6 +1351,12 @@
       </c>
       <c r="K22" t="s">
         <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="3">
+        <v>40823</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
+    <workbookView xWindow="837" yWindow="368" windowWidth="13881" windowHeight="5157"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -256,13 +256,16 @@
   </si>
   <si>
     <t>1h 30min</t>
+  </si>
+  <si>
+    <t>12h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -437,7 +440,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -472,7 +474,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -648,16 +649,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
@@ -671,7 +672,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="33.5">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -680,7 +681,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -702,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -718,7 +719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -734,7 +735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -747,7 +748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.15">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +790,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -830,7 +831,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -871,7 +872,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3</v>
       </c>
@@ -912,7 +913,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>4</v>
       </c>
@@ -953,7 +954,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
@@ -994,7 +995,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1066,8 +1067,14 @@
       <c r="K14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="3">
+        <v>40823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1137,7 +1144,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1251,7 +1258,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1321,7 +1328,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1441,24 +1448,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="837" yWindow="368" windowWidth="13881" windowHeight="5157"/>
+    <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -259,13 +259,31 @@
   </si>
   <si>
     <t>12h</t>
+  </si>
+  <si>
+    <t>2h 30min</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Vortrag</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Präsentation erstellen</t>
+  </si>
+  <si>
+    <t>Dokumentation erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,7 +384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -440,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -474,6 +493,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -649,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -666,13 +686,13 @@
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.5">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -681,7 +701,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -703,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -719,7 +739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -735,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -748,7 +768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.15">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,7 +810,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -831,7 +851,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -872,7 +892,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -913,7 +933,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -954,7 +974,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -995,7 +1015,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1036,12 +1056,12 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -1064,6 +1084,9 @@
       <c r="I14" t="s">
         <v>56</v>
       </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
       <c r="K14" t="s">
         <v>53</v>
       </c>
@@ -1074,7 +1097,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1106,7 +1129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1144,7 +1167,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1176,7 +1199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1217,7 +1240,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1258,12 +1281,12 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -1286,11 +1309,14 @@
       <c r="I20" t="s">
         <v>67</v>
       </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
       <c r="K20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1318,6 +1344,9 @@
       <c r="I21" t="s">
         <v>75</v>
       </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
       <c r="K21" t="s">
         <v>54</v>
       </c>
@@ -1328,7 +1357,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1356,6 +1385,9 @@
       <c r="I22" t="s">
         <v>76</v>
       </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
       <c r="K22" t="s">
         <v>54</v>
       </c>
@@ -1366,12 +1398,12 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -1394,8 +1426,81 @@
       <c r="I23" t="s">
         <v>77</v>
       </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
       <c r="K23" t="s">
         <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="3">
+        <v>40830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="3">
+        <v>40840</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="3">
+        <v>40840</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1448,24 +1553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="375" windowWidth="13875" windowHeight="5160"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$34</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -282,8 +282,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -458,7 +458,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -493,7 +492,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -669,14 +667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -692,7 +690,7 @@
     <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="33.75">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -701,7 +699,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -723,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -739,7 +737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -755,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -768,7 +766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -810,7 +808,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -851,7 +849,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -892,7 +890,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>3</v>
       </c>
@@ -933,7 +931,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>4</v>
       </c>
@@ -974,7 +972,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1167,7 +1165,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1315,8 +1313,14 @@
       <c r="K20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="3">
+        <v>40837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>40830</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1553,24 +1557,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoryCards.xlsx
+++ b/StoryCards.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$7:$M$33</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Ausarbeitung</t>
   </si>
   <si>
-    <t>Vortrag/Doku</t>
-  </si>
-  <si>
     <t>Mrosk, Thomas</t>
   </si>
   <si>
@@ -240,18 +237,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>6h</t>
-  </si>
-  <si>
     <t>Recherche</t>
   </si>
   <si>
-    <t>Sammeln von infos zu Ameisensysteme</t>
-  </si>
-  <si>
-    <t>Sammeln von infos zu TSP</t>
-  </si>
-  <si>
     <t>Komprimierung der gesammelten Daten</t>
   </si>
   <si>
@@ -277,6 +265,12 @@
   </si>
   <si>
     <t>Dokumentation erstellen</t>
+  </si>
+  <si>
+    <t>Sammeln von Infos zu Ameisensysteme</t>
+  </si>
+  <si>
+    <t>Sammeln von Infos zu TSP</t>
   </si>
 </sst>
 </file>
@@ -668,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -998,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
         <v>31</v>
@@ -1039,7 +1033,7 @@
         <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
         <v>31</v>
@@ -1089,7 +1083,7 @@
         <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M14" s="3">
         <v>40823</v>
@@ -1100,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1123,8 +1117,17 @@
       <c r="I15" t="s">
         <v>49</v>
       </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
       <c r="K15" t="s">
         <v>54</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="3">
+        <v>40795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1132,13 +1135,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3">
         <v>40822</v>
@@ -1147,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
@@ -1155,11 +1158,14 @@
       <c r="I16" t="s">
         <v>57</v>
       </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="3">
         <v>40847</v>
@@ -1170,31 +1176,40 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3">
-        <v>40822</v>
+        <v>40795</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="3">
+        <v>40795</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1205,37 +1220,37 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="3">
-        <v>40795</v>
+        <v>40822</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
         <v>45</v>
       </c>
       <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
         <v>61</v>
       </c>
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" t="s">
-        <v>62</v>
-      </c>
       <c r="M18" s="3">
-        <v>40795</v>
+        <v>40822</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1246,10 +1261,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3">
         <v>40822</v>
@@ -1258,25 +1273,25 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
         <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M19" s="3">
-        <v>40822</v>
+        <v>40837</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1287,37 +1302,37 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3">
-        <v>40822</v>
+        <v>40823</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
         <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M20" s="3">
-        <v>40837</v>
+        <v>40823</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1343,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
         <v>31</v>
@@ -1355,7 +1370,7 @@
         <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M21" s="3">
         <v>40823</v>
@@ -1369,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -1384,22 +1399,22 @@
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
         <v>76</v>
       </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" t="s">
-        <v>78</v>
-      </c>
       <c r="M22" s="3">
-        <v>40823</v>
+        <v>40830</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1413,34 +1428,34 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3">
-        <v>40823</v>
+        <v>40840</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
       </c>
       <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
         <v>77</v>
       </c>
-      <c r="J23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" t="s">
-        <v>52</v>
-      </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M23" s="3">
-        <v>40830</v>
+        <v>40846</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1448,13 +1463,13 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3">
         <v>40840</v>
@@ -1463,52 +1478,29 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="3">
-        <v>40840</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" t="s">
         <v>53</v>
       </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="3">
+        <v>40846</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:M34"/>
+  <autoFilter ref="A7:M33"/>
   <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:E1"/>
@@ -1525,7 +1517,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B34">
+  <conditionalFormatting sqref="B8:B33">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="jungfräulich">
       <formula>NOT(ISERROR(SEARCH("jungfräulich",B8)))</formula>
     </cfRule>
@@ -1537,19 +1529,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F33">
       <formula1>$D$2:$H$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C33">
       <formula1>$D$3:$F$3</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B34">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B33">
       <formula1>$D$4:$F$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J33">
       <formula1>$D$5:$E$5</formula1>
     </dataValidation>
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G34"/>
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G33"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
